--- a/FincApp/testing/system testing .xlsx
+++ b/FincApp/testing/system testing .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\UVG\2020 parte 2\INGSOFT\Finca\FincApp\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E167216B-3AC3-4A55-BD74-ADFE08C9FEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1B312-2C55-483A-A363-8991BE39F940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{249A6703-A817-4D0C-AEC1-6BCB685DCD28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Nombre del Test</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>Datos dummy.</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t>Poder Salir de la Aplicacion sin ningnun problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estar ingresado dentro del App y poder salir a la pagina de inicio. </t>
+  </si>
+  <si>
+    <t>Base de Datos (Auth)</t>
+  </si>
+  <si>
+    <t>Poder registrar nuevos usuarios dentro de la base de datos.</t>
+  </si>
+  <si>
+    <t>Al momento de registrar un usuario, capturar la informacion y mandarla a una base de datos en Firebase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funciona bien, hay que problablemente agregar una alerta que indique que ya salio de la sesion. </t>
   </si>
 </sst>
 </file>
@@ -176,15 +197,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -244,17 +277,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,11 +315,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,6 +877,287 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>317278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1945823</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3265715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63142CA-DDA8-4C82-B9DE-97952C432DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12314465" y="14332635"/>
+          <a:ext cx="1864179" cy="2948437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1891395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>326572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3666559</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3265715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8DA7BA-A756-48C6-9175-63B93BD8459C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14124216" y="14341929"/>
+          <a:ext cx="1775164" cy="2939143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>347214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2873830</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3295651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64DDD80-F142-4CE8-B155-4E31A1E0ABBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486901" y="14362571"/>
+          <a:ext cx="1864179" cy="2948437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2531992</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3101068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530F668E-6C25-4C74-BA64-EE17DC1B9211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="17757322"/>
+          <a:ext cx="1388992" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1432536</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2858861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F48020-79B3-403E-9887-A81E7F754354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12276365" y="17515115"/>
+          <a:ext cx="1388992" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2680608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3701143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4367893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6511140-27EB-4752-AB37-124E76C5E29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12246429" y="20165787"/>
+          <a:ext cx="3687535" cy="1687285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1118,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A898A3F3-8594-448B-87C3-F506C51D7ACF}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J8" sqref="B2:J8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,44 +1482,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1197,7 +1541,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1224,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1249,7 +1593,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1274,7 +1618,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1291,7 +1635,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1299,11 +1643,60 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="273" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="I10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/FincApp/testing/system testing .xlsx
+++ b/FincApp/testing/system testing .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\UVG\2020 parte 2\INGSOFT\Finca\FincApp\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1B312-2C55-483A-A363-8991BE39F940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE842F-084A-415D-9662-0BB2B222356F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{249A6703-A817-4D0C-AEC1-6BCB685DCD28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Nombre del Test</t>
   </si>
@@ -102,9 +102,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Funciona perfecto.</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Funciona bien.</t>
   </si>
   <si>
-    <t>Hay que agregarle la capacidad de generar una nueva venta por un form y mostrarla.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ir al repo. Descargar el proyecto. Instalar dependencias. Usar "expo start w" para verlo en web. Si es en movil, solo descargar la app "Expo Client", escanear el codigo QR que sale cuando se corre en una terminal "expo start w". </t>
   </si>
   <si>
@@ -166,6 +160,21 @@
   </si>
   <si>
     <t xml:space="preserve">Funciona bien, hay que problablemente agregar una alerta que indique que ya salio de la sesion. </t>
+  </si>
+  <si>
+    <t>Ya indica que una nueva venta fue agregada correctamente.</t>
+  </si>
+  <si>
+    <t>Centros de Costo</t>
+  </si>
+  <si>
+    <t>Poder agregar gastos dentro de la finca categorizados.</t>
+  </si>
+  <si>
+    <t>Ingresar con usuario, ir a seccion de centros de costo, ingresar datos de gasto en quetzales, nombre, descripcion y el centro de costo.</t>
+  </si>
+  <si>
+    <t>Funciona bien y agrega los centros de costo.</t>
   </si>
 </sst>
 </file>
@@ -212,7 +221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,6 +315,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,24 +337,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,94 +629,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1352551</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2672287</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2600325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F8AC6B-305A-4C1D-A78D-35B540613A31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13563601" y="11315700"/>
-          <a:ext cx="1319736" cy="2495550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1244580</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2295525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2780218</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4937FCF9-BD65-4110-BBFD-FFCC27F3C8D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9702780" y="11249024"/>
-          <a:ext cx="1050945" cy="2742119"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>52466</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>457199</xdr:rowOff>
@@ -732,7 +653,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -776,7 +697,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -820,7 +741,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -864,7 +785,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -908,7 +829,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -952,7 +873,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -996,7 +917,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1040,7 +961,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1084,7 +1005,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1128,7 +1049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1158,6 +1079,226 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111106</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1668822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2723129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E0335D-B44B-4BEC-960E-AB4C33812661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8569306" y="11306175"/>
+          <a:ext cx="1557716" cy="2627879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2139931</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3595738</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2714625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834117F7-D508-462D-A76D-1FCB8E0F4A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10598131" y="11268075"/>
+          <a:ext cx="1455807" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>918145</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3119689</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2695575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B35124-8E15-4BD9-AB70-D7EB5B18D533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13129195" y="11296650"/>
+          <a:ext cx="2201544" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2552699</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2903379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAD31B9-26C6-4B4A-914D-D06793F0086B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="21943023"/>
+          <a:ext cx="1390649" cy="2848806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3238500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3092526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBC4C1F-D3C0-4039-9D92-660B9B9FF793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="21922622"/>
+          <a:ext cx="2581275" cy="3058354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1462,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A898A3F3-8594-448B-87C3-F506C51D7ACF}">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J10"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,17 +1623,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1534,18 +1675,18 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,20 +1700,20 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,18 +1727,18 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="264" customHeight="1" x14ac:dyDescent="0.25">
@@ -1611,18 +1752,18 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,67 +1777,90 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="10" t="s">
-        <v>22</v>
+      <c r="I8" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="273" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>43</v>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="I10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>25</v>
+      <c r="J10" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/FincApp/testing/system testing .xlsx
+++ b/FincApp/testing/system testing .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\UVG\2020 parte 2\INGSOFT\Finca\FincApp\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE842F-084A-415D-9662-0BB2B222356F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8202F3B-AF43-471E-B724-8DB0DA334D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{249A6703-A817-4D0C-AEC1-6BCB685DCD28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Nombre del Test</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>Funciona bien y agrega los centros de costo.</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Poder llevar control del personal dentro de la finca y poder ingresar nuevos empleados.</t>
+  </si>
+  <si>
+    <t>Ingresar con usuario, ir a seccion de personal, ingresar datos de nombre, apellido, dpi, numero celular, y numero de emergencia. Apachar boton de registrar.</t>
+  </si>
+  <si>
+    <t>Funciona bien y agrega empleados y trabajadores a la finca.</t>
   </si>
 </sst>
 </file>
@@ -328,6 +340,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,12 +353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,6 +1307,94 @@
         <a:xfrm>
           <a:off x="12868275" y="21922622"/>
           <a:ext cx="2581275" cy="3058354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2828925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3971525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB73BA74-7995-4473-9EA6-351DEBFA7CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="25174472"/>
+          <a:ext cx="2028825" cy="3819228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3493468</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3943349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2C2634-5E6A-45E0-ACCA-C0FE64C42513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12658726" y="25212673"/>
+          <a:ext cx="3045792" cy="3752851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A898A3F3-8594-448B-87C3-F506C51D7ACF}">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,17 +1723,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1784,7 +1884,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1837,7 +1937,7 @@
       <c r="I10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1861,6 +1961,28 @@
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
